--- a/data/trans_bre/MCS12_SP_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.8384984026072406</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.731304329353629</v>
+        <v>3.731304329353619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2444796575932815</v>
@@ -649,7 +649,7 @@
         <v>0.01756730828883603</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.08968887259936954</v>
+        <v>0.08968887259936927</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.638677920503457</v>
+        <v>2.862053597307859</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.544567676609078</v>
+        <v>-2.065290394250631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.662385113621077</v>
+        <v>-7.20913616525774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.929337249996441</v>
+        <v>-2.698284877365461</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06341988464430072</v>
+        <v>0.06857055177118519</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.04336968823687132</v>
+        <v>-0.03798014339474023</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1304505118754011</v>
+        <v>-0.135065801935127</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04110669902084692</v>
+        <v>-0.05710656005849531</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.46429463813035</v>
+        <v>17.52178346178957</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.62214314243113</v>
+        <v>13.32048195237114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.036955031665238</v>
+        <v>7.782905414165294</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.755962947556265</v>
+        <v>8.981090802037251</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4651447311902838</v>
+        <v>0.4678854899615085</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2881441611205538</v>
+        <v>0.2801701044092215</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1828640227974216</v>
+        <v>0.1759053636761126</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2595595189547141</v>
+        <v>0.2358961409940135</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.1463333763836834</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.354939014158438</v>
+        <v>0.3549390141584378</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.50216997836837</v>
+        <v>8.955114169244805</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.551167982989687</v>
+        <v>8.569694792914495</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8295528028912454</v>
+        <v>-0.6429289657701139</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.468441662279581</v>
+        <v>6.912364019419619</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1953183191296713</v>
+        <v>0.1996493543162987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1662464106169475</v>
+        <v>0.1651603187952993</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01675899271781555</v>
+        <v>-0.01147031184852938</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1613921895495537</v>
+        <v>0.1798182942157144</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>23.43848757300563</v>
+        <v>23.7573142430363</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>24.18853733897224</v>
+        <v>23.75982598012811</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.74008331958252</v>
+        <v>14.76015681652202</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19.03829613626839</v>
+        <v>18.96571425214168</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6646178283749545</v>
+        <v>0.6791119366039086</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5455138850007885</v>
+        <v>0.527029204592749</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.323344024702634</v>
+        <v>0.3553252606524273</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5800798889724131</v>
+        <v>0.5753773263739603</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.539625667861666</v>
+        <v>3.642777417844566</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.55611024675663</v>
+        <v>5.209848758163074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7398881952023654</v>
+        <v>0.343397261166941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.59219289581194</v>
+        <v>1.955709147725204</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06994331975030031</v>
+        <v>0.07499467490779897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08472382206930575</v>
+        <v>0.09681886381488464</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01353898722258956</v>
+        <v>0.007875666163320329</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03084485650715418</v>
+        <v>0.0412938669056282</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.24858596202345</v>
+        <v>20.98665598029568</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.58507315646069</v>
+        <v>19.5376835397175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.64754700397738</v>
+        <v>18.63661349039618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.16553790693358</v>
+        <v>17.37540161785578</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4961198988358932</v>
+        <v>0.4919612847253463</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.395284282024737</v>
+        <v>0.3918268563716243</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3886892140695833</v>
+        <v>0.3946264161226147</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4121390231845086</v>
+        <v>0.4183398733378642</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.90844529446065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.163252288668641</v>
+        <v>6.163252288668636</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1082169469891176</v>
@@ -949,7 +949,7 @@
         <v>0.09739634254272328</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1423306948970936</v>
+        <v>0.1423306948970934</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7098739731944956</v>
+        <v>0.7547712225554768</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.919243127483689</v>
+        <v>5.013857247809705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5088263104584926</v>
+        <v>0.3055402966034783</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.868358333387635</v>
+        <v>1.959451373299895</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01568387657762254</v>
+        <v>0.01508588894216706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09017414817683238</v>
+        <v>0.09184993183479442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01026325699350444</v>
+        <v>0.004779155195877359</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04055904650834826</v>
+        <v>0.0429268442097776</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.895026283450902</v>
+        <v>9.837283699884512</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.05835218946164</v>
+        <v>14.36984442662147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.699955265222901</v>
+        <v>9.415731038430556</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.92356122624925</v>
+        <v>10.57222817461028</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2150766204246052</v>
+        <v>0.21043988548435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2854259689874002</v>
+        <v>0.2920678306806467</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1989618423315381</v>
+        <v>0.1932039239011023</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2662353599957547</v>
+        <v>0.2599265504220281</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.801380273888077</v>
+        <v>8.79141799572804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>12.42674253339019</v>
+        <v>12.71865057211831</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.59844071200883</v>
+        <v>6.698734336263917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.207261763857068</v>
+        <v>4.339496555939401</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1833275618144203</v>
+        <v>0.181901899226829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.240242655024949</v>
+        <v>0.2556375334558791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1203593158370953</v>
+        <v>0.1220230350859965</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.08760221686874452</v>
+        <v>0.08674072185856076</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.25108216688424</v>
+        <v>22.2202889516365</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.24408251644053</v>
+        <v>23.6796159128135</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.66572232382478</v>
+        <v>18.01213181375238</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.80460994936031</v>
+        <v>14.66992035471195</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5840792868010047</v>
+        <v>0.5679439249812388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5585271455924922</v>
+        <v>0.5535724816601646</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3709293177178905</v>
+        <v>0.3756421046512078</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3595474877629644</v>
+        <v>0.3487398761649746</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>18.22374996157471</v>
+        <v>18.17671746676927</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>21.40458130070192</v>
+        <v>21.75905905690723</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11.72496783271284</v>
+        <v>12.0860310904455</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.94339134215453</v>
+        <v>11.05558317770398</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5345659409508504</v>
+        <v>0.5409299307354772</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.563514275420153</v>
+        <v>0.5890296880759652</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3198284734173208</v>
+        <v>0.3234941534869587</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2987979315003949</v>
+        <v>0.302630500551261</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>30.03290860808871</v>
+        <v>29.0266670742436</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>34.12918980277823</v>
+        <v>34.35962627621161</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24.24149390550173</v>
+        <v>25.42831258409562</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30.65160446311864</v>
+        <v>30.43477396707681</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.229395328239131</v>
+        <v>1.177413655461388</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.25122788452928</v>
+        <v>1.277163325159665</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8883902026624624</v>
+        <v>0.932423549824681</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.502449126660511</v>
+        <v>1.498708441115026</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>6.753357593956783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9.031912454549445</v>
+        <v>9.031912454549468</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2526509829569614</v>
@@ -1249,7 +1249,7 @@
         <v>0.140237132970257</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2170563400720404</v>
+        <v>0.2170563400720409</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.2952360583479</v>
+        <v>8.462554471642235</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.49476756516263</v>
+        <v>10.38448979807507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.22302244948851</v>
+        <v>4.329442069190249</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.667756187705004</v>
+        <v>6.49167612958398</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1882516795663589</v>
+        <v>0.1883905242693875</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2099108106678831</v>
+        <v>0.2050616477866693</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08491172254858453</v>
+        <v>0.08722701631577515</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1541968529225967</v>
+        <v>0.1492487255989299</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.57738861485633</v>
+        <v>13.46862474592473</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.38901641367267</v>
+        <v>15.50071930962187</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.91300531333518</v>
+        <v>9.237618527166273</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.38170293195246</v>
+        <v>11.36846534181502</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3230545894360767</v>
+        <v>0.3187029697039346</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3235150667026451</v>
+        <v>0.3255773736143135</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1903514515133002</v>
+        <v>0.1972203147136871</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2825935069751957</v>
+        <v>0.2821872614008781</v>
       </c>
     </row>
     <row r="25">
